--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2462463.441039113</v>
+        <v>2459919.631532031</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>232.2791855053266</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>25.67913628361573</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>40.85846787140588</v>
+        <v>86.5806924570762</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>37.25438779878566</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>226.6607070537008</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>97.26234557100793</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>212.568965117905</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>52.2385069966786</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>50.06632887147386</v>
       </c>
     </row>
     <row r="7">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>34.52670189341621</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>67.09881849679824</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>20.05635656442051</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>5.723199381630261</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465034</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115237</v>
+        <v>18.47335059662623</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256438</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>28.39805643775607</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>144.1975497335843</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H13" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>126.9263824507407</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.8605623338606</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>1.594095449514112</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>102.15578456998</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>110.0177171766861</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>198.9107847550991</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892427987</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91555826189101</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695618</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>99.97427419833859</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812326</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>35.55160172423379</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.26558381699969</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428213</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>112.6849016609949</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820.2300801016545</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="C2" t="n">
-        <v>820.2300801016545</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="D2" t="n">
-        <v>820.2300801016545</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344764</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672985</v>
+        <v>313.4132884659003</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="H2" t="n">
         <v>21.0971104001205</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030612</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991325</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.514968335842</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.421463841153</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>586.7364457822819</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>320.3587892151038</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>320.3587892151038</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>385.7557290105855</v>
+        <v>255.0869132793731</v>
       </c>
       <c r="C3" t="n">
-        <v>211.3026997294585</v>
+        <v>255.0869132793731</v>
       </c>
       <c r="D3" t="n">
-        <v>62.36829006820724</v>
+        <v>255.0869132793731</v>
       </c>
       <c r="E3" t="n">
-        <v>62.36829006820724</v>
+        <v>255.0869132793731</v>
       </c>
       <c r="F3" t="n">
-        <v>62.36829006820724</v>
+        <v>108.5523553062581</v>
       </c>
       <c r="G3" t="n">
-        <v>62.36829006820724</v>
+        <v>108.5523553062581</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4410,22 +4410,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957466</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302314</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>462.9384134849059</v>
       </c>
       <c r="V3" t="n">
-        <v>801.3675279810723</v>
+        <v>462.9384134849059</v>
       </c>
       <c r="W3" t="n">
-        <v>801.3675279810723</v>
+        <v>462.9384134849059</v>
       </c>
       <c r="X3" t="n">
-        <v>593.5160277755394</v>
+        <v>255.0869132793731</v>
       </c>
       <c r="Y3" t="n">
-        <v>385.7557290105855</v>
+        <v>255.0869132793731</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.1002068716687</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>522.1002068716687</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>522.1002068716687</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>374.1871132892755</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>227.2971657913652</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>58.72780514636864</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
         <v>21.0971104001205</v>
@@ -4495,13 +4495,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.182233022705</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388467</v>
+        <v>659.6853352735299</v>
       </c>
       <c r="V4" t="n">
-        <v>788.4778634388467</v>
+        <v>430.7351261283775</v>
       </c>
       <c r="W4" t="n">
-        <v>522.1002068716687</v>
+        <v>430.7351261283775</v>
       </c>
       <c r="X4" t="n">
-        <v>522.1002068716687</v>
+        <v>202.7455752303602</v>
       </c>
       <c r="Y4" t="n">
-        <v>522.1002068716687</v>
+        <v>202.7455752303602</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571245</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C5" t="n">
-        <v>573.7617370571245</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>956.6107264999559</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>956.6107264999559</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>690.233069932778</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>690.233069932778</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>690.233069932778</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.1393936243026</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397.2507180260125</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>222.7976887448855</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>73.86327908363424</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>73.86327908363424</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>503.6022960313625</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742821</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460806</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="X6" t="n">
-        <v>565.4660550460806</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="Y6" t="n">
-        <v>565.4660550460806</v>
+        <v>195.5501396812475</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.79337523296</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="C7" t="n">
-        <v>533.79337523296</v>
+        <v>55.97256685811666</v>
       </c>
       <c r="D7" t="n">
-        <v>383.6767358206242</v>
+        <v>55.97256685811666</v>
       </c>
       <c r="E7" t="n">
-        <v>235.7636422382311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>88.87369474032076</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001379</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="W7" t="n">
-        <v>533.79337523296</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X7" t="n">
-        <v>533.79337523296</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.79337523296</v>
+        <v>224.9087497860236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1659.090843722203</v>
+        <v>863.0844409294709</v>
       </c>
       <c r="C8" t="n">
-        <v>1290.128326781791</v>
+        <v>494.1219239890592</v>
       </c>
       <c r="D8" t="n">
-        <v>931.862628175041</v>
+        <v>473.862977964392</v>
       </c>
       <c r="E8" t="n">
-        <v>546.0743755767967</v>
+        <v>473.862977964392</v>
       </c>
       <c r="F8" t="n">
-        <v>135.0884707871891</v>
+        <v>466.9174772151886</v>
       </c>
       <c r="G8" t="n">
-        <v>123.4226528192603</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607419</v>
+        <v>442.175743760743</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045926</v>
+        <v>795.1862829045942</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995229</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.591685209587</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940596</v>
+        <v>2053.905718940599</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550198</v>
+        <v>2359.356530550202</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661164</v>
+        <v>2540.564622661168</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762137</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762137</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762137</v>
+        <v>2306.981581868357</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.830015762137</v>
+        <v>1975.918694524787</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.830015762137</v>
+        <v>1623.150039254672</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.830015762137</v>
+        <v>1249.684280993593</v>
       </c>
       <c r="Y8" t="n">
-        <v>2045.690683786325</v>
+        <v>1249.684280993593</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010823</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199553</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.122281858704</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532485</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801335</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763217</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>69.871205304458</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637188</v>
+        <v>113.488757963719</v>
       </c>
       <c r="K9" t="n">
-        <v>298.085754314818</v>
+        <v>559.9063389572714</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482993</v>
+        <v>854.442322390753</v>
       </c>
       <c r="M9" t="n">
-        <v>955.6882062226007</v>
+        <v>1271.362276040968</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.145052418487</v>
+        <v>1658.446678513537</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405876</v>
+        <v>1990.333488500927</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789039</v>
+        <v>2237.368846930552</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251703</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685352</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751581</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519839</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791637</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.72505782115</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.674010863609</v>
+        <v>388.134562995072</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7378279357022</v>
+        <v>219.198380067165</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6211885233664</v>
+        <v>219.198380067165</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7080949409733</v>
+        <v>219.198380067165</v>
       </c>
       <c r="F10" t="n">
-        <v>473.818147443063</v>
+        <v>219.198380067165</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380149</v>
+        <v>76.63468308380168</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676568</v>
+        <v>248.2500215676571</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368921</v>
+        <v>523.3850043368925</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904036</v>
+        <v>823.8653899904043</v>
       </c>
       <c r="N10" t="n">
         <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477363</v>
+        <v>1607.084239984682</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477363</v>
+        <v>1410.443987206515</v>
       </c>
       <c r="T10" t="n">
-        <v>1490.115054837379</v>
+        <v>1187.462685680921</v>
       </c>
       <c r="U10" t="n">
-        <v>1490.115054837379</v>
+        <v>898.3443121755627</v>
       </c>
       <c r="V10" t="n">
-        <v>1490.115054837379</v>
+        <v>898.3443121755627</v>
       </c>
       <c r="W10" t="n">
-        <v>1490.115054837379</v>
+        <v>608.9271421386021</v>
       </c>
       <c r="X10" t="n">
-        <v>1490.115054837379</v>
+        <v>608.9271421386021</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.322475693849</v>
+        <v>388.134562995072</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5179,16 +5179,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>172.349019141113</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400699</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400699</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277341</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277341</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>363.7369613277341</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703096</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>634.334587849125</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>486.4214942667319</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5835,22 +5835,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5914,46 +5914,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5984,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400717</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400717</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1996.142560886457</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1707.067334230655</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1452.382846024768</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1162.965675987807</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>934.9761250897898</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>714.1835459462596</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,52 +6218,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474266</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>113.9333885650335</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6446,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6476,16 +6476,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998291</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998291</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,22 +6692,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,13 +6716,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,7 +6734,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6789,16 +6789,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400744</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>296.9234711454493</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611862</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138443</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703141</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1089.575996120531</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>920.6398131926237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>770.5231737802879</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>622.6100801978948</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>475.7201326999844</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>308.5240334148644</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>166.8122022570625</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1720.006590992318</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1271.22446095077</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7166,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273905</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273905</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1872.470231673185</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2529.355041543136</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127281</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8146,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>171.8177168444622</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>26.13373767211354</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>54.3974597736493</v>
       </c>
       <c r="N9" t="n">
-        <v>210.4772158821385</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348508</v>
+        <v>20.98618304348497</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-5.515673818967502e-13</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H13" t="n">
-        <v>40.32043864788574</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856724</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>38.59775584152815</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>143.8269525734171</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>35.40333084624518</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>18.49466557218921</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393248</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>125.5054897610402</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>45.44677382459265</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405046</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>45.71423459433174</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>9.000252501565825</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>815725.6195683572</v>
+        <v>815725.6195683574</v>
       </c>
     </row>
     <row r="3">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>797336.9821029654</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.007658079</v>
+        <v>390680.0076580801</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606931</v>
+        <v>507909.2320606922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101772</v>
+        <v>95270.23779101792</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.975695469</v>
+        <v>132717.9756954688</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501117</v>
+        <v>140465.2517501114</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26430,34 +26430,34 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179353</v>
       </c>
-      <c r="H4" t="n">
-        <v>11167.03225179354</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="J4" t="n">
-        <v>11167.0322517935</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179347</v>
-      </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179349</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567897</v>
+        <v>92902.86757567906</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358055.7777696595</v>
+        <v>-358055.7777696591</v>
       </c>
       <c r="C6" t="n">
-        <v>322032.2028215335</v>
+        <v>322032.2028215338</v>
       </c>
       <c r="D6" t="n">
-        <v>12259.24466095021</v>
+        <v>12259.24466094916</v>
       </c>
       <c r="E6" t="n">
-        <v>5339.820623361025</v>
+        <v>5305.082697926322</v>
       </c>
       <c r="F6" t="n">
-        <v>513249.0526840541</v>
+        <v>513214.3147586186</v>
       </c>
       <c r="G6" t="n">
-        <v>513249.0526840541</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="H6" t="n">
-        <v>513249.0526840542</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="I6" t="n">
-        <v>513249.052684054</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="J6" t="n">
-        <v>444249.8982649401</v>
+        <v>444215.1603395045</v>
       </c>
       <c r="K6" t="n">
-        <v>513249.0526840544</v>
+        <v>513214.3147586182</v>
       </c>
       <c r="L6" t="n">
-        <v>417978.8148930364</v>
+        <v>417944.0769676006</v>
       </c>
       <c r="M6" t="n">
-        <v>380531.0769885854</v>
+        <v>380496.3390631498</v>
       </c>
       <c r="N6" t="n">
-        <v>513249.0526840542</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="O6" t="n">
-        <v>513249.0526840541</v>
+        <v>513214.3147586182</v>
       </c>
       <c r="P6" t="n">
-        <v>513249.0526840543</v>
+        <v>513214.3147586185</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627829</v>
+        <v>933.7024595627837</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085696</v>
+        <v>640.1406900856969</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933045</v>
+        <v>319.6474457933055</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788908</v>
+        <v>434.27304077889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841907</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139515</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841907</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139515</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841907</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139515</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.454656158154</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>387.1550383620943</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776173</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27430,13 +27430,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>58.62085239980387</v>
+        <v>12.89862781413356</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>115.1277715370711</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27591,16 +27591,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.5447505011713</v>
+        <v>22.54475050117122</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>25.47693627012723</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>115.0273700322153</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.6689735381486</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>92.83070539670527</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>155.6163669058305</v>
       </c>
     </row>
     <row r="7">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>111.907260753153</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>99.78484854174833</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27831,13 +27831,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>334.6266850562624</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3102748386702</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465022</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164526092</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164530078</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>73.18890272633921</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>76.55393877675445</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.353712668104585e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-5.260329494105887e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.75357772688556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546675</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972533</v>
+        <v>318.5802175972536</v>
       </c>
       <c r="K8" t="n">
-        <v>477.469162776319</v>
+        <v>477.4691627763194</v>
       </c>
       <c r="L8" t="n">
-        <v>592.342717135493</v>
+        <v>592.3427171354934</v>
       </c>
       <c r="M8" t="n">
-        <v>659.095405035994</v>
+        <v>659.0954050359945</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525076</v>
+        <v>669.7602577525082</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307894</v>
+        <v>632.4356192307898</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983021</v>
+        <v>539.7691690983025</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542129</v>
+        <v>405.3441667542133</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140471</v>
+        <v>85.53465245140478</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035142</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902627</v>
+        <v>69.14683309026276</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502168</v>
+        <v>324.3030514502171</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571281</v>
+        <v>436.0654741571284</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617166</v>
+        <v>508.867840461717</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152214</v>
+        <v>522.3360580152219</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519084</v>
+        <v>477.8354464519088</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947589</v>
+        <v>383.5050724947592</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.3629847463704</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.693320920479</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366399</v>
+        <v>37.30405581366402</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133936</v>
+        <v>8.095024154133943</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752561</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415879</v>
+        <v>50.63422518415884</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490126</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.9316641023127</v>
       </c>
       <c r="N10" t="n">
-        <v>257.655959046235</v>
+        <v>257.6559590462352</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046256</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.6389757708733</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307414</v>
+        <v>75.70643221307421</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658777</v>
+        <v>29.3427477865878</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942751</v>
+        <v>7.194100917942757</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650333</v>
+        <v>0.09183958618650341</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,16 +31835,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>204.3779992811859</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,31 +33269,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>169.6252075171348</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.548359657229</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34866,7 @@
         <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526984</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>263.7138800015062</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>238.3094620181793</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705673</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313385</v>
+        <v>257.3793117313389</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655058</v>
+        <v>356.5763021655062</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087213</v>
+        <v>428.7491718087218</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559167</v>
+        <v>440.3471941559173</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091026</v>
+        <v>402.3374078091031</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430325</v>
+        <v>308.536173343033</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.0384768797638</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234292</v>
+        <v>20.20013907234312</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127585</v>
+        <v>62.90656844127602</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758578</v>
+        <v>450.9268494884367</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772539</v>
+        <v>297.5110943772542</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396983</v>
+        <v>421.131266313348</v>
       </c>
       <c r="N9" t="n">
-        <v>601.4715618140266</v>
+        <v>390.9943459318886</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074639</v>
+        <v>335.2392020074643</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203658</v>
+        <v>249.530665080429</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603486</v>
+        <v>326.458498396198</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873315</v>
+        <v>25.68023017873325</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513691</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.9141240093287</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.5155410641533</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254636</v>
+        <v>301.7881314254638</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228584</v>
+        <v>54.82702814228595</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>77.54037261451921</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191299</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998968</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306628</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>23.94570355317081</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
